--- a/VT_ModelNL_SUP_V01.xlsx
+++ b/VT_ModelNL_SUP_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Shell_168\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Pliki GitHub\LocalEnShProject-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C99323-F383-4726-98E4-D7667A8CA10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E84CBE-4CAA-4944-B882-2542516940BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -2528,12 +2528,12 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normale_B2020" xfId="278" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="281" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3790,7 +3790,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4054,7 +4054,7 @@
         <v>WIND_OFF</v>
       </c>
       <c r="E11" s="38">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -4094,12 +4094,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -4243,6 +4237,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
@@ -4252,15 +4252,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADE2FD8-87C7-41E1-A1A0-6DF35B741F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4276,4 +4267,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>